--- a/target/test-classes/Fido_Details.xlsx
+++ b/target/test-classes/Fido_Details.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23322"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3410BA80-C93F-4576-A00F-0B0A3FD54D2A}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8EE323F6-997E-4CCD-BC3E-A0D0F20C4502}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,13 +49,13 @@
     <t>Additional_Information</t>
   </si>
   <si>
-    <t>poonamkhokher@gmail.com</t>
-  </si>
-  <si>
-    <t>Poonam</t>
-  </si>
-  <si>
-    <t>Khokher</t>
+    <t>StacyCotwan@gmail.com</t>
+  </si>
+  <si>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Cotwan</t>
   </si>
   <si>
     <t>898-766-9768</t>
